--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.47959733333333</v>
+        <v>13.404345</v>
       </c>
       <c r="H2">
-        <v>124.438792</v>
+        <v>40.213035</v>
       </c>
       <c r="I2">
-        <v>0.03392314276466685</v>
+        <v>0.01122005832922476</v>
       </c>
       <c r="J2">
-        <v>0.03392314276466685</v>
+        <v>0.01122005832922476</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.48784766666667</v>
+        <v>1.949849666666667</v>
       </c>
       <c r="N2">
-        <v>67.463543</v>
+        <v>5.849549000000001</v>
       </c>
       <c r="O2">
-        <v>0.4520839499795984</v>
+        <v>0.06676506732104066</v>
       </c>
       <c r="P2">
-        <v>0.4520839499795983</v>
+        <v>0.06676506732104066</v>
       </c>
       <c r="Q2">
-        <v>932.7868661066728</v>
+        <v>26.136457630135</v>
       </c>
       <c r="R2">
-        <v>8395.081794960055</v>
+        <v>235.228118671215</v>
       </c>
       <c r="S2">
-        <v>0.01533610837677243</v>
+        <v>0.0007491079496966941</v>
       </c>
       <c r="T2">
-        <v>0.01533610837677242</v>
+        <v>0.0007491079496966941</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.47959733333333</v>
+        <v>13.404345</v>
       </c>
       <c r="H3">
-        <v>124.438792</v>
+        <v>40.213035</v>
       </c>
       <c r="I3">
-        <v>0.03392314276466685</v>
+        <v>0.01122005832922476</v>
       </c>
       <c r="J3">
-        <v>0.03392314276466685</v>
+        <v>0.01122005832922476</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>69.80431</v>
       </c>
       <c r="O3">
-        <v>0.4677698025791556</v>
+        <v>0.7967262871802238</v>
       </c>
       <c r="P3">
-        <v>0.4677698025791556</v>
+        <v>0.7967262871802239</v>
       </c>
       <c r="Q3">
-        <v>965.1515569770577</v>
+        <v>311.89368457565</v>
       </c>
       <c r="R3">
-        <v>8686.36401279352</v>
+        <v>2807.04316118085</v>
       </c>
       <c r="S3">
-        <v>0.01586822179389272</v>
+        <v>0.008939315414588787</v>
       </c>
       <c r="T3">
-        <v>0.01586822179389272</v>
+        <v>0.008939315414588788</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.47959733333333</v>
+        <v>13.404345</v>
       </c>
       <c r="H4">
-        <v>124.438792</v>
+        <v>40.213035</v>
       </c>
       <c r="I4">
-        <v>0.03392314276466685</v>
+        <v>0.01122005832922476</v>
       </c>
       <c r="J4">
-        <v>0.03392314276466685</v>
+        <v>0.01122005832922476</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.960057</v>
       </c>
       <c r="O4">
-        <v>0.08014624744124609</v>
+        <v>0.1365086454987356</v>
       </c>
       <c r="P4">
-        <v>0.08014624744124607</v>
+        <v>0.1365086454987356</v>
       </c>
       <c r="Q4">
-        <v>165.3661161479049</v>
+        <v>53.43891008255499</v>
       </c>
       <c r="R4">
-        <v>1488.295045331144</v>
+        <v>480.9501907429949</v>
       </c>
       <c r="S4">
-        <v>0.002718812594001706</v>
+        <v>0.001531634964939278</v>
       </c>
       <c r="T4">
-        <v>0.002718812594001706</v>
+        <v>0.001531634964939278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3338.727783</v>
       </c>
       <c r="I5">
-        <v>0.9101674599595009</v>
+        <v>0.9315566574535661</v>
       </c>
       <c r="J5">
-        <v>0.9101674599595008</v>
+        <v>0.9315566574535661</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.48784766666667</v>
+        <v>1.949849666666667</v>
       </c>
       <c r="N5">
-        <v>67.463543</v>
+        <v>5.849549000000001</v>
       </c>
       <c r="O5">
-        <v>0.4520839499795984</v>
+        <v>0.06676506732104066</v>
       </c>
       <c r="P5">
-        <v>0.4520839499795983</v>
+        <v>0.06676506732104066</v>
       </c>
       <c r="Q5">
-        <v>25026.93392819057</v>
+        <v>2170.005751591097</v>
       </c>
       <c r="R5">
-        <v>225242.4053537151</v>
+        <v>19530.05176431987</v>
       </c>
       <c r="S5">
-        <v>0.4114721004413891</v>
+        <v>0.06219544294825095</v>
       </c>
       <c r="T5">
-        <v>0.411472100441389</v>
+        <v>0.06219544294825095</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3338.727783</v>
       </c>
       <c r="I6">
-        <v>0.9101674599595009</v>
+        <v>0.9315566574535661</v>
       </c>
       <c r="J6">
-        <v>0.9101674599595008</v>
+        <v>0.9315566574535661</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>69.80431</v>
       </c>
       <c r="O6">
-        <v>0.4677698025791556</v>
+        <v>0.7967262871802238</v>
       </c>
       <c r="P6">
-        <v>0.4677698025791556</v>
+        <v>0.7967262871802239</v>
       </c>
       <c r="Q6">
         <v>25895.28768557163</v>
@@ -818,10 +818,10 @@
         <v>233057.5891701447</v>
       </c>
       <c r="S6">
-        <v>0.4257488530592273</v>
+        <v>0.7421956769909992</v>
       </c>
       <c r="T6">
-        <v>0.4257488530592272</v>
+        <v>0.7421956769909993</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3338.727783</v>
       </c>
       <c r="I7">
-        <v>0.9101674599595009</v>
+        <v>0.9315566574535661</v>
       </c>
       <c r="J7">
-        <v>0.9101674599595008</v>
+        <v>0.9315566574535661</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.960057</v>
       </c>
       <c r="O7">
-        <v>0.08014624744124609</v>
+        <v>0.1365086454987356</v>
       </c>
       <c r="P7">
-        <v>0.08014624744124607</v>
+        <v>0.1365086454987356</v>
       </c>
       <c r="Q7">
         <v>4436.819399129292</v>
@@ -880,10 +880,10 @@
         <v>39931.37459216363</v>
       </c>
       <c r="S7">
-        <v>0.07294650645888459</v>
+        <v>0.1271655375143159</v>
       </c>
       <c r="T7">
-        <v>0.07294650645888458</v>
+        <v>0.1271655375143159</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>205.090015</v>
       </c>
       <c r="I8">
-        <v>0.05590939727583234</v>
+        <v>0.05722328421720919</v>
       </c>
       <c r="J8">
-        <v>0.05590939727583233</v>
+        <v>0.05722328421720919</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.48784766666667</v>
+        <v>1.949849666666667</v>
       </c>
       <c r="N8">
-        <v>67.463543</v>
+        <v>5.849549000000001</v>
       </c>
       <c r="O8">
-        <v>0.4520839499795984</v>
+        <v>0.06676506732104066</v>
       </c>
       <c r="P8">
-        <v>0.4520839499795983</v>
+        <v>0.06676506732104066</v>
       </c>
       <c r="Q8">
-        <v>1537.344338424794</v>
+        <v>133.2982324614706</v>
       </c>
       <c r="R8">
-        <v>13836.09904582314</v>
+        <v>1199.684092153235</v>
       </c>
       <c r="S8">
-        <v>0.02527574116143688</v>
+        <v>0.003820516423093015</v>
       </c>
       <c r="T8">
-        <v>0.02527574116143687</v>
+        <v>0.003820516423093015</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>205.090015</v>
       </c>
       <c r="I9">
-        <v>0.05590939727583234</v>
+        <v>0.05722328421720919</v>
       </c>
       <c r="J9">
-        <v>0.05590939727583233</v>
+        <v>0.05722328421720919</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>69.80431</v>
       </c>
       <c r="O9">
-        <v>0.4677698025791556</v>
+        <v>0.7967262871802238</v>
       </c>
       <c r="P9">
-        <v>0.4677698025791556</v>
+        <v>0.7967262871802239</v>
       </c>
       <c r="Q9">
         <v>1590.685220551628</v>
@@ -1004,10 +1004,10 @@
         <v>14316.16698496465</v>
       </c>
       <c r="S9">
-        <v>0.02615272772603567</v>
+        <v>0.04559129477463577</v>
       </c>
       <c r="T9">
-        <v>0.02615272772603567</v>
+        <v>0.04559129477463578</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>205.090015</v>
       </c>
       <c r="I10">
-        <v>0.05590939727583234</v>
+        <v>0.05722328421720919</v>
       </c>
       <c r="J10">
-        <v>0.05590939727583233</v>
+        <v>0.05722328421720919</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>11.960057</v>
       </c>
       <c r="O10">
-        <v>0.08014624744124609</v>
+        <v>0.1365086454987356</v>
       </c>
       <c r="P10">
-        <v>0.08014624744124607</v>
+        <v>0.1365086454987356</v>
       </c>
       <c r="Q10">
         <v>272.5431410589838</v>
@@ -1066,10 +1066,10 @@
         <v>2452.888269530855</v>
       </c>
       <c r="S10">
-        <v>0.004480928388359788</v>
+        <v>0.007811473019480402</v>
       </c>
       <c r="T10">
-        <v>0.004480928388359787</v>
+        <v>0.007811473019480402</v>
       </c>
     </row>
   </sheetData>
